--- a/Runner/testdata.xlsx
+++ b/Runner/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="3135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="3135"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -43,9 +43,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>quw</t>
-  </si>
-  <si>
     <t>par</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>nitsysharma03@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -421,24 +412,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>7097097</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -448,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -483,9 +465,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -496,11 +480,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Runner/testdata.xlsx
+++ b/Runner/testdata.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="3135"/>
   </bookViews>
   <sheets>
-    <sheet name="testdata" sheetId="2" r:id="rId1"/>
+    <sheet name="testdata" sheetId="5" r:id="rId1"/>
     <sheet name="testdata2" sheetId="4" r:id="rId2"/>
     <sheet name="testvalue" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -381,16 +381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -414,9 +411,6 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
